--- a/classfiers/nano/elm/nano_elm_lin_results.xlsx
+++ b/classfiers/nano/elm/nano_elm_lin_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9098712446351931</v>
+        <v>0.8967136150234741</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4411500449236298</v>
+        <v>0.4431223227034745</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9313304721030042</v>
+        <v>0.9248826291079812</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5889976958525345</v>
+        <v>0.4324238578680203</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5324643384161337</v>
+        <v>0.4813456632653061</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4279220779220779</v>
+        <v>0.5583710407239819</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9137931034482759</v>
+        <v>0.8915094339622641</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4485849056603774</v>
+        <v>0.4614676788589832</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9157244339203789</v>
+        <v>0.9114890601470458</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4878238125549507</v>
+        <v>0.4753461126839532</v>
       </c>
     </row>
   </sheetData>
